--- a/Relatórios LN/Controle_Relatorios.xlsx
+++ b/Relatórios LN/Controle_Relatorios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="319">
   <si>
     <t>Relatório</t>
   </si>
@@ -175,6 +175,804 @@
   </si>
   <si>
     <t>RelatorioPagamento</t>
+  </si>
+  <si>
+    <t>LN_Pagamento_Titulo</t>
+  </si>
+  <si>
+    <t>RelatorioPagamentosMarketplace</t>
+  </si>
+  <si>
+    <t>LN_Contas a Pagar - Relatório de Pagamento Marketplace</t>
+  </si>
+  <si>
+    <t>RelatorioTipoAconselhamentoAdiantamento</t>
+  </si>
+  <si>
+    <t>LN_Contas a pagar - Tipo de Aconselhamento Adiantamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelatorioTitulos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelatorioTitulosReembolsoCAP </t>
+  </si>
+  <si>
+    <t>LN_Contas a pagar - Titulos Reembolso CAP</t>
+  </si>
+  <si>
+    <t>Contas Receber</t>
+  </si>
+  <si>
+    <t>RelatorioB2BFinanceiroCAR</t>
+  </si>
+  <si>
+    <t>LN_B2B_Financeiro_CAR</t>
+  </si>
+  <si>
+    <t>RelatorioB2BFinanceiroCARCliente</t>
+  </si>
+  <si>
+    <t>LN_B2B_Financeiro_CAR_Cliente</t>
+  </si>
+  <si>
+    <t>RelatorioConciliacao</t>
+  </si>
+  <si>
+    <t>LN_Contas a Receber_Conciliacao</t>
+  </si>
+  <si>
+    <t>RelatorioFinTitulosReembolsoSACQ0100</t>
+  </si>
+  <si>
+    <t>LN_Contas a receber - FIN_TITULOS_REEMBOLSO</t>
+  </si>
+  <si>
+    <t>RelatorioTitulosReembolso</t>
+  </si>
+  <si>
+    <t>LN_Contas a receber - Titulos Reembolso CAR</t>
+  </si>
+  <si>
+    <t>RelatorioVCPAbatimentoNF</t>
+  </si>
+  <si>
+    <t>LN_Contas a receber - VPC_ABATIMENTO_EM_NF</t>
+  </si>
+  <si>
+    <t>Controles Internos</t>
+  </si>
+  <si>
+    <t>RelatorioFichaKardex</t>
+  </si>
+  <si>
+    <t>LN_Controles Internos - Ficha_Kardex</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>RelatorioAgingEstoqueReversa</t>
+  </si>
+  <si>
+    <t>LN_Reversa - Aging estoque reversa</t>
+  </si>
+  <si>
+    <t>RelatorioEstoqueReversa</t>
+  </si>
+  <si>
+    <t>LN_query_estoque_reversa</t>
+  </si>
+  <si>
+    <t>RelatorioEstoqueReversaV2</t>
+  </si>
+  <si>
+    <t>LN_Estoque_RelatorioEstoqueReversa_V2</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>view divergente</t>
+  </si>
+  <si>
+    <t>Fiscal</t>
+  </si>
+  <si>
+    <t>RelatorioAprovacaoFiscal</t>
+  </si>
+  <si>
+    <t>LN_Fiscal - Relatório para aprovacao fiscal</t>
+  </si>
+  <si>
+    <t>RelatorioApuracaoImpostoFederal</t>
+  </si>
+  <si>
+    <t>LN_FISCAL_Apuracao_imposto_federal_alt</t>
+  </si>
+  <si>
+    <t>RelatorioApuracaoImpostoMunicipal</t>
+  </si>
+  <si>
+    <t>LN_FISCAL_Apuracao_imposto_municipal</t>
+  </si>
+  <si>
+    <t>RelatorioApuracaoST</t>
+  </si>
+  <si>
+    <t>LN_Fiscal - Apuração_do_ST</t>
+  </si>
+  <si>
+    <t>RelatorioArquivoNotasoperacoesFiscais</t>
+  </si>
+  <si>
+    <t>LN_Notas_Operacoes_Fiscais</t>
+  </si>
+  <si>
+    <t>RelatorioControleNotasDevolucaoCliente</t>
+  </si>
+  <si>
+    <t>LN_Fiscal - Contr_Notas_Devolução</t>
+  </si>
+  <si>
+    <t>RelatorioGNRE</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_RelatorioGNRE</t>
+  </si>
+  <si>
+    <t>RelatorioItensSemOKFiscal</t>
+  </si>
+  <si>
+    <t>LN_Itens_Sem_OK_Fiscal</t>
+  </si>
+  <si>
+    <t>RelatorioNFEmitidasStatus</t>
+  </si>
+  <si>
+    <t>LN_Fiscal - NFs_Emitidas_por_Status</t>
+  </si>
+  <si>
+    <t>RelatorioNFEntrada</t>
+  </si>
+  <si>
+    <t>LN_Fiscal -NF_Entrada</t>
+  </si>
+  <si>
+    <t>RelatorioNFSaida</t>
+  </si>
+  <si>
+    <t>LN_Fiscal -NF_Saida</t>
+  </si>
+  <si>
+    <t>RelatorioNFSaidaSOX</t>
+  </si>
+  <si>
+    <t>LN_Fiscal -NF_Saida_SOX</t>
+  </si>
+  <si>
+    <t>RelatorioNFsCanceladas</t>
+  </si>
+  <si>
+    <t>LN_Fiscal - Relatório NFs Canceladas</t>
+  </si>
+  <si>
+    <t>RelatorioNotaFiscalStatusComposto</t>
+  </si>
+  <si>
+    <t>LN_Relatorio_Notas_Fiscais_Status_Composto</t>
+  </si>
+  <si>
+    <t>RelatorioNotasEmitidasDevolucaoAto</t>
+  </si>
+  <si>
+    <t>LN_Fiscal - Notas_Fiscais_Emitidas_Devolução_no_Ato</t>
+  </si>
+  <si>
+    <t>RelatorioNotasRecebimentoEmissaoFornecedorItem</t>
+  </si>
+  <si>
+    <t>LN_Fiscal - Notas de recebimento e emissão por fornecedor e item</t>
+  </si>
+  <si>
+    <t>RelatorioNotasStatusDiferente_LancadoEstornado</t>
+  </si>
+  <si>
+    <t>LN_Relatorio_Notas_Status_Diferente_Lancado_Estornado</t>
+  </si>
+  <si>
+    <t>RelatorioOrdensDevolucao</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_PAF - Ordens de Devolução</t>
+  </si>
+  <si>
+    <t>RelatorioPedidosInternos</t>
+  </si>
+  <si>
+    <t>LN_Fiscal - Pedidos Internos</t>
+  </si>
+  <si>
+    <t>RelatorioRecebimentoFornecedores</t>
+  </si>
+  <si>
+    <t>LN_Fiscal - Relatório de recebimento de fornecedores serviços</t>
+  </si>
+  <si>
+    <t>RelatorioServicosFederal</t>
+  </si>
+  <si>
+    <t>LN_Relatório_Serviços_Federal</t>
+  </si>
+  <si>
+    <t>RelatorioSpedEntradaICMS</t>
+  </si>
+  <si>
+    <t>LN_Sped_Entrada_ICMS</t>
+  </si>
+  <si>
+    <t>RelatorioSpedSaidaICMS</t>
+  </si>
+  <si>
+    <t>LN_Sped_Saida_ICMS</t>
+  </si>
+  <si>
+    <t>RelatorioTransferenciaEntreFiliais</t>
+  </si>
+  <si>
+    <t>LN_Fiscal - TRANSFERENCIA_ENTRE_FILIAIS</t>
+  </si>
+  <si>
+    <t>RelatorioWMSBaseRecebimento</t>
+  </si>
+  <si>
+    <t>WMS_REL_074_Base_Recebimento</t>
+  </si>
+  <si>
+    <t>Logistica</t>
+  </si>
+  <si>
+    <t>RelatorioFiscalATTMRemessa</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_ATTM_Remessa</t>
+  </si>
+  <si>
+    <t>RelatorioFiscalATTMRetorno</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_ATTM_Retorno</t>
+  </si>
+  <si>
+    <t>RelatorioFiscalATTMV2</t>
+  </si>
+  <si>
+    <t>RelatorioNotasAprovadasCanceladasInutilizadas_eHub</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_Notas_Aprovadas_Canceladas_Inutilizadas_eHub</t>
+  </si>
+  <si>
+    <t>RelatorioSEC</t>
+  </si>
+  <si>
+    <t>LN_Rel_LN_SEC</t>
+  </si>
+  <si>
+    <t>RelatorioSIGEQ0150Estoque</t>
+  </si>
+  <si>
+    <t>LN_Estoque_SIGEQ0150</t>
+  </si>
+  <si>
+    <t>RelatorioSIGEQ0150Estoque_Old</t>
+  </si>
+  <si>
+    <t>não encontrei a view</t>
+  </si>
+  <si>
+    <t>RelatorioSIGEQ0150EstoqueV2</t>
+  </si>
+  <si>
+    <t>RelatorioSLADataProcessamento</t>
+  </si>
+  <si>
+    <t>LN_SLA_Data_Processamento</t>
+  </si>
+  <si>
+    <t>RelatorioTransacoesPlanejadasNaoExpedidas</t>
+  </si>
+  <si>
+    <t>RelatorioWMSAcompanhamentoInventario</t>
+  </si>
+  <si>
+    <t>WMS_R082 - Acompanhamento de Inventario</t>
+  </si>
+  <si>
+    <t>LN_Relatorio_Transacoes_Planejadas_Nao_Expedidas</t>
+  </si>
+  <si>
+    <t>RelatorioWMSAESLogisticaReversa</t>
+  </si>
+  <si>
+    <t>LN_Logistica Reversa - Relatorio AES Reversa</t>
+  </si>
+  <si>
+    <t>RelatorioWMSAgendamentoFinalFilial</t>
+  </si>
+  <si>
+    <t>WMS_R075_Agendamento Final Filial</t>
+  </si>
+  <si>
+    <t>RelatorioWMSArmazenagemDetalhe</t>
+  </si>
+  <si>
+    <t>WMS_Q_WMS_REL_016_-_ Armazenagem_Detalhe</t>
+  </si>
+  <si>
+    <t>RelatorioWMSAvariaInterna</t>
+  </si>
+  <si>
+    <t>WMS_Logistica Reversa - Relatório Avaria Interna</t>
+  </si>
+  <si>
+    <t>RelatorioWMSCaminhoesGaiolasNaoLiquidados</t>
+  </si>
+  <si>
+    <t>WMS_R052 Caminhões e Gaiolas não liquidados</t>
+  </si>
+  <si>
+    <t>RelatorioWMSCaminhoPedidosDiaHoraData</t>
+  </si>
+  <si>
+    <t>WMS_R065 - Caminho-pedidos_dia_hora_data</t>
+  </si>
+  <si>
+    <t>RelatorioWMSConsultaItemV2</t>
+  </si>
+  <si>
+    <t>WMS_R013 - Consulta item</t>
+  </si>
+  <si>
+    <t>RelatorioWMSConsultaMovClasseLocalV1</t>
+  </si>
+  <si>
+    <t>WMS_R071_Consulta_Movto_Classe_Local</t>
+  </si>
+  <si>
+    <t>RelatorioWMSConsultaPedidosManuais</t>
+  </si>
+  <si>
+    <t>WMS_R041_Consulta_Pedidos_Manuais</t>
+  </si>
+  <si>
+    <t>RelatorioWMSContagemLocalRequisicao</t>
+  </si>
+  <si>
+    <t>WMS_Logistica - Relatório Contagem Local por Requisição</t>
+  </si>
+  <si>
+    <t>RelatorioWMSContagemPorLocal</t>
+  </si>
+  <si>
+    <t>WMS_Logistica - Relatório Contagem por Local</t>
+  </si>
+  <si>
+    <t>RelatorioWMSContagemSupervisor</t>
+  </si>
+  <si>
+    <t>WMS_Logistica -  Relatório Contagem Supervisor</t>
+  </si>
+  <si>
+    <t>RelatorioWMSDiferencaPedidoGaiola</t>
+  </si>
+  <si>
+    <t>WMS_R053 Diferenças entre o Pedido e Gaiola</t>
+  </si>
+  <si>
+    <t>RelatorioWMSDivergenciaItensRequisicao</t>
+  </si>
+  <si>
+    <t>WMS_R014 - Divergencias Inventario</t>
+  </si>
+  <si>
+    <t>RelatorioWMSDivergenciasInventario</t>
+  </si>
+  <si>
+    <t>RelatorioWMSDivergenciasInventarioV2</t>
+  </si>
+  <si>
+    <t>WMS_Logistica -  Relatório Divergências Inventário 2</t>
+  </si>
+  <si>
+    <t>RelatorioWMSEltonV1</t>
+  </si>
+  <si>
+    <t>WMS_REL_068_-_Elton_Relatorio</t>
+  </si>
+  <si>
+    <t>RelatorioWMSEntradaPedidosFaturamento</t>
+  </si>
+  <si>
+    <t>WMS_047_Entrada_Pedidos_Faturamento</t>
+  </si>
+  <si>
+    <t>RelatorioWMSEntradaSaidaV1</t>
+  </si>
+  <si>
+    <t>WMS_R069 Entrada Saida</t>
+  </si>
+  <si>
+    <t>RelatorioWMSEstoqueDevolver</t>
+  </si>
+  <si>
+    <t>WMS_R072_ESTOQUE A DEVOLVER</t>
+  </si>
+  <si>
+    <t>RelatorioWMSEstoqueGeralFilial</t>
+  </si>
+  <si>
+    <t>WMS_REL_056_ESTOQUE_GERAL_POR_FILIAL</t>
+  </si>
+  <si>
+    <t>RelatorioWMSEstoqueItemTik</t>
+  </si>
+  <si>
+    <t>WMS_R048 Estoque Item Kit</t>
+  </si>
+  <si>
+    <t>RelatorioWMSEstoqueRestricaoClasseLocalArmazenamento</t>
+  </si>
+  <si>
+    <t>WMS_Relatorio - Divergencia Itens Requisição</t>
+  </si>
+  <si>
+    <t>WMS_R001_CLASSES DE LOCAIS COM RESTRIÇÃO</t>
+  </si>
+  <si>
+    <t>RelatorioWMSEstoqueValorPlantaFilialItensValor</t>
+  </si>
+  <si>
+    <t>WMS_R015_ESTOQUE VALOR PLANTA FILIAL E ITENS COM VALOR</t>
+  </si>
+  <si>
+    <t>RelatorioWMSEstoqueValorPlantaFilialItensValor_Proc</t>
+  </si>
+  <si>
+    <t>não tem relatorio. É uma proc direto no WMS</t>
+  </si>
+  <si>
+    <t>RelatorioWMSFaturamentoCalculoHora</t>
+  </si>
+  <si>
+    <t>WMS_FATURAMENTO_CALCULO_HORA</t>
+  </si>
+  <si>
+    <t>RelatorioWMSFaturamentoCDV2</t>
+  </si>
+  <si>
+    <t>WMS_R023_Faturamento_x_CD</t>
+  </si>
+  <si>
+    <t>RelatorioWMSFaturamentoDepartamento</t>
+  </si>
+  <si>
+    <t>WMS_Faturamento_por_Departamento</t>
+  </si>
+  <si>
+    <t>RelatorioWMSFaturamentoHoraSerie</t>
+  </si>
+  <si>
+    <t>WMS_Faturamento_por_Hora_Serie</t>
+  </si>
+  <si>
+    <t>RelatorioWMSFaturamentoHoraSerieV2</t>
+  </si>
+  <si>
+    <t>RelatorioWMSInventario</t>
+  </si>
+  <si>
+    <t>WMS_R084 - Inventario</t>
+  </si>
+  <si>
+    <t>RelatorioWMSInventarioRequisicao</t>
+  </si>
+  <si>
+    <t>WMS_R088_Inventário requisição</t>
+  </si>
+  <si>
+    <t>RelatorioWMSItensPecasDiaHora</t>
+  </si>
+  <si>
+    <t>WMS_R044_ITENS PECAS DIA E HORA</t>
+  </si>
+  <si>
+    <t>RelatorioWMSLocaisArmazenamentoRECDOC</t>
+  </si>
+  <si>
+    <t>WMS_REL_064_Locais_de_Armazenamento_por_Recdoc</t>
+  </si>
+  <si>
+    <t>RelatorioWMSLocaisContados</t>
+  </si>
+  <si>
+    <t>RelatorioWMSLocaisExistentesNaoContados</t>
+  </si>
+  <si>
+    <t>WMS_Relatório Faturamento Hora Serie V2</t>
+  </si>
+  <si>
+    <t>RelatorioWMSLocaisHabilitados</t>
+  </si>
+  <si>
+    <t>WMS_Logistica -  Relatório Locais Habilitados</t>
+  </si>
+  <si>
+    <t>RelatorioWMSLocaisInventario</t>
+  </si>
+  <si>
+    <t>WMS_R090_LOCAIS EM INVENTARIO</t>
+  </si>
+  <si>
+    <t>RelatorioWMSMisturaOnda</t>
+  </si>
+  <si>
+    <t>WMS_MISTURA_POR_ONDA</t>
+  </si>
+  <si>
+    <t>RelatorioWMSMovimentacaoPedidosDaniel</t>
+  </si>
+  <si>
+    <t>WMS_R078_Movimentacao Pedidos Daniel</t>
+  </si>
+  <si>
+    <t>RelatorioWMSNFLancadaRecebida</t>
+  </si>
+  <si>
+    <t>WMS_Relatorio_NFs_Lancadas_x_Recebidas</t>
+  </si>
+  <si>
+    <t>RelatorioWMSOcupacaoClasseLocal</t>
+  </si>
+  <si>
+    <t>WMS_Ocupacao_por_classe_de_local</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPainelUnineg</t>
+  </si>
+  <si>
+    <t>WMS_R040 Painel Unineg</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidos</t>
+  </si>
+  <si>
+    <t>WMS_REL_031_PEDIDOS_WMS</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosAES_PAP_WMS_TNA_AEW</t>
+  </si>
+  <si>
+    <t>WMS_R032 PedidosAES_PAP_WMS_TNA_AEW</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosAtrasadosFilial</t>
+  </si>
+  <si>
+    <t>WMS_R026_Pedidos_Atrasados_por_filial2</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosBarateiro</t>
+  </si>
+  <si>
+    <t>WMS_R027 - Pedidos barateiro</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosCanceladosSAC</t>
+  </si>
+  <si>
+    <t>WMS_REL_007 - Pedidos Cancelados pelo SAC</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosEtapa2</t>
+  </si>
+  <si>
+    <t>WMS_PEDIDOS_POR_ETAPA_N2</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosEtapa2_Ehub</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosEtapaV4</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosEtapaV4_Old</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosExpedidosData</t>
+  </si>
+  <si>
+    <t>WMS_REL_061_Pedidos_Expedidos_por_Data</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosFiliais</t>
+  </si>
+  <si>
+    <t>WMS_PEDIDOS_FILIAIS</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosNaoRomaneados</t>
+  </si>
+  <si>
+    <t>WMS_R076_Pedidos Não Romaneados</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosParadosV1</t>
+  </si>
+  <si>
+    <t>WMS_R077 Pedidos parados V1</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPedidosTPRetirarLoja</t>
+  </si>
+  <si>
+    <t>WMS_R045 Pedidos TP Retira Loja</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPerdaLogistica</t>
+  </si>
+  <si>
+    <t>LN_Logística Reversa - Perda Logística Logística Reversa</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPerfHomemHoraMovimentacaoArmazenagem</t>
+  </si>
+  <si>
+    <t>WMS_REL_034_Perf_Homem_a_Hora_Moviment_e_Armazenagem</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPerformanceExpedicaoOperadorV2</t>
+  </si>
+  <si>
+    <t>WMS_R022_PERF_POR_OPERADOR_EXPEDICAO</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPerformanceOperadoresRecebimento</t>
+  </si>
+  <si>
+    <t>WMS_REL_004_Performance_Operadores_Recebimento</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPerformanceOperadorPickingAtac</t>
+  </si>
+  <si>
+    <t>WMS_R035 Performance Operador Picking Atac</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPerformancePickingOperador</t>
+  </si>
+  <si>
+    <t>WMS_R019_PERF_POR_OPERADOR_PICK</t>
+  </si>
+  <si>
+    <t>RelatorioWMSPerformancePorOperadorPickPrograma</t>
+  </si>
+  <si>
+    <t>WMS_R018_PERF_POR_OPERADOR_PICK__PROGRAMA</t>
+  </si>
+  <si>
+    <t>RelatorioWMSQRY0180CFOPReserva</t>
+  </si>
+  <si>
+    <t>WMS_QRY0180_Com_CFOP_Reversa</t>
+  </si>
+  <si>
+    <t>RelatorioWMSQRY0180CFOPReserva_Old</t>
+  </si>
+  <si>
+    <t>RelatorioWMSQuerySerial</t>
+  </si>
+  <si>
+    <t>RelatorioWMSRecebimentoAberto</t>
+  </si>
+  <si>
+    <t>WMS_R006 - Recebimentos em aberto</t>
+  </si>
+  <si>
+    <t>RelatorioWMSRel079</t>
+  </si>
+  <si>
+    <t>RelatorioWMSRequisicaoLiberada</t>
+  </si>
+  <si>
+    <t>RelatorioWMSResultadosPorRequisicao</t>
+  </si>
+  <si>
+    <t>WMS_R086 - Resultados por requisicao</t>
+  </si>
+  <si>
+    <t>RelatorioWMSResumoApuracaoRequisicao</t>
+  </si>
+  <si>
+    <t>RelatorioWMSSaidaUnineg</t>
+  </si>
+  <si>
+    <t>WMS_R039_SAIDA_UNID_NEGOCIOS</t>
+  </si>
+  <si>
+    <t>RelatorioWMSTempo</t>
+  </si>
+  <si>
+    <t>WMS_REL_066_Tempo_WMS</t>
+  </si>
+  <si>
+    <t>tem uma view chamada "WMS_R061_Pedidos_Expedidos_por_Data" igual</t>
+  </si>
+  <si>
+    <t>tem uma view chamada "WMS_R066_Tempo_WMS" igual</t>
+  </si>
+  <si>
+    <t>RelatorioWMSTempoEntradaSaidaRestricaoRT</t>
+  </si>
+  <si>
+    <t>WMS_R017_TEMPO ENTRADA E SAIDA RESTRICAO RT</t>
+  </si>
+  <si>
+    <t>RelatorioWMSTempoRecebimentoDepto</t>
+  </si>
+  <si>
+    <t>WMS_REL_005_-_Tempo_de_Recebimento_Depto_v2</t>
+  </si>
+  <si>
+    <t>RelatorioWMSValorExpedidoVolumeCubado</t>
+  </si>
+  <si>
+    <t>WMS_Valor_Recebido_Volume_Cubado</t>
+  </si>
+  <si>
+    <t>RelatorioWMSValorRecebidoVolumeCubado</t>
+  </si>
+  <si>
+    <t>WMS_Valor_expedido_volume_cubado</t>
+  </si>
+  <si>
+    <t>Planejamento Financeiro</t>
+  </si>
+  <si>
+    <t>RelatorioRazaoContabil</t>
+  </si>
+  <si>
+    <t>LN_Planejamento Financeiro - Razão_Contábil</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>RelatorioCondicaoTipoPagtoOrdemFornecedor</t>
+  </si>
+  <si>
+    <t>LN_Supply - Condição pagamento por ordem fornecedor</t>
+  </si>
+  <si>
+    <t>RelatorioConsignacao</t>
+  </si>
+  <si>
+    <t>LN_Supply - Relatorio_Consignacao</t>
+  </si>
+  <si>
+    <t>RelatorioContatoFornecedores</t>
+  </si>
+  <si>
+    <t>LN_Supply - Contato Fornecedores</t>
+  </si>
+  <si>
+    <t>RelatorioCorteConsignacao</t>
+  </si>
+  <si>
+    <t>LN_Supply - Relatorio_Corte_Consignacao</t>
+  </si>
+  <si>
+    <t>RelatorioDevolucaoNFAtoRecebimentoVPC</t>
   </si>
 </sst>
 </file>
@@ -190,12 +988,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,18 +1014,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E158" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:E158">
+    <filterColumn colId="4"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Relatório Principal" dataDxfId="6"/>
+    <tableColumn id="2" name="Grupo de Relatório" dataDxfId="5"/>
+    <tableColumn id="3" name="Relatório" dataDxfId="4"/>
+    <tableColumn id="4" name="View LN" dataDxfId="3"/>
+    <tableColumn id="5" name="Observação" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,335 +1366,2353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157:B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="45">
+      <c r="A127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5" ht="30">
+      <c r="A148" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Relatórios LN/Controle_Relatorios.xlsx
+++ b/Relatórios LN/Controle_Relatorios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="564">
   <si>
     <t>Relatório</t>
   </si>
@@ -1693,6 +1693,21 @@
   </si>
   <si>
     <t>LN_CtasPagar_RelatorioAprovacoesOrdemCompra</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_RelatorioApuracaoImpostoFederal.sql</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_RelatorioApuracaoImpostoMunicipal.sql</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_RelatorioApuracaoST.sql</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_RelatorioArquivoNotasOperacoesFiscais</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_RelatorioArquivoNotasOperacoesFiscais_Ehub</t>
   </si>
 </sst>
 </file>
@@ -1774,11 +1789,7 @@
   <dxfs count="25">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1804,7 +1815,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1951,21 +1966,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1997,11 +2002,77 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2077,112 +2148,56 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F220" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F220" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <tableColumns count="6">
-    <tableColumn id="6" name="Negócio" dataDxfId="18"/>
-    <tableColumn id="1" name="Menu Principal" dataDxfId="17"/>
-    <tableColumn id="2" name="Sub Menu" dataDxfId="24"/>
-    <tableColumn id="3" name="Relatório" dataDxfId="23"/>
-    <tableColumn id="4" name="View LN" dataDxfId="22"/>
-    <tableColumn id="5" name="Observação" dataDxfId="21"/>
+    <tableColumn id="6" name="Negócio" dataDxfId="22"/>
+    <tableColumn id="1" name="Menu Principal" dataDxfId="21"/>
+    <tableColumn id="2" name="Sub Menu" dataDxfId="20"/>
+    <tableColumn id="3" name="Relatório" dataDxfId="19"/>
+    <tableColumn id="4" name="View LN" dataDxfId="18"/>
+    <tableColumn id="5" name="Observação" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:F93" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:F93" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:F93">
     <filterColumn colId="0"/>
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="6" name="Negócio" dataDxfId="16"/>
-    <tableColumn id="1" name="Menu Principal" dataDxfId="15"/>
-    <tableColumn id="2" name="Sub Menu" dataDxfId="14"/>
-    <tableColumn id="3" name="Relatório" dataDxfId="13"/>
-    <tableColumn id="4" name="View LN" dataDxfId="12"/>
-    <tableColumn id="5" name="Observação" dataDxfId="11"/>
+    <tableColumn id="6" name="Negócio" dataDxfId="14"/>
+    <tableColumn id="1" name="Menu Principal" dataDxfId="13"/>
+    <tableColumn id="2" name="Sub Menu" dataDxfId="12"/>
+    <tableColumn id="3" name="Relatório" dataDxfId="11"/>
+    <tableColumn id="4" name="View LN" dataDxfId="10"/>
+    <tableColumn id="5" name="Observação" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G312" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G312" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <sortState ref="A2:F312">
     <sortCondition ref="D2:D312"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Negócio" dataDxfId="8"/>
-    <tableColumn id="2" name="Menu Principal" dataDxfId="7"/>
-    <tableColumn id="3" name="Sub Menu" dataDxfId="6"/>
-    <tableColumn id="4" name="Relatório" dataDxfId="5"/>
-    <tableColumn id="7" name="Nova View LN" dataDxfId="0"/>
-    <tableColumn id="5" name="View LN" dataDxfId="4"/>
-    <tableColumn id="6" name="Observação" dataDxfId="3"/>
+    <tableColumn id="1" name="Negócio" dataDxfId="6"/>
+    <tableColumn id="2" name="Menu Principal" dataDxfId="5"/>
+    <tableColumn id="3" name="Sub Menu" dataDxfId="4"/>
+    <tableColumn id="4" name="Relatório" dataDxfId="3"/>
+    <tableColumn id="7" name="Nova View LN" dataDxfId="2"/>
+    <tableColumn id="5" name="View LN" dataDxfId="1"/>
+    <tableColumn id="6" name="Observação" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8123,7 +8138,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" ht="25.5">
       <c r="A84" s="3" t="s">
         <v>552</v>
       </c>
@@ -8325,8 +8340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8494,6 +8509,9 @@
       <c r="D8" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="E8" s="7" t="s">
+        <v>559</v>
+      </c>
       <c r="F8" s="7" t="s">
         <v>88</v>
       </c>
@@ -8511,6 +8529,9 @@
       <c r="D9" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="E9" s="7" t="s">
+        <v>560</v>
+      </c>
       <c r="F9" s="7" t="s">
         <v>90</v>
       </c>
@@ -8528,6 +8549,9 @@
       <c r="D10" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>561</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>92</v>
       </c>
@@ -8545,6 +8569,9 @@
       <c r="D11" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>562</v>
+      </c>
       <c r="F11" s="7" t="s">
         <v>94</v>
       </c>
@@ -8561,6 +8588,9 @@
       </c>
       <c r="D12" s="7" t="s">
         <v>449</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>563</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>462</v>

--- a/Relatórios LN/Controle_Relatorios.xlsx
+++ b/Relatórios LN/Controle_Relatorios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="710">
   <si>
     <t>Relatório</t>
   </si>
@@ -2131,13 +2131,28 @@
   </si>
   <si>
     <t>LN_Contabilidade_RelatorioPedidosAprovadosNaoFaturados</t>
+  </si>
+  <si>
+    <t>LN_Supply_RelatorioPedidosClienteWMS</t>
+  </si>
+  <si>
+    <t>LN_Supply_RelatorioPedidosClienteWMS_eHub</t>
+  </si>
+  <si>
+    <t>RelatorioPedidosPAPMarketPlace</t>
+  </si>
+  <si>
+    <t>Market Place</t>
+  </si>
+  <si>
+    <t>LN_MarketPlace_RelatorioPedidosPAPMarketPlace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2147,6 +2162,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2192,7 +2214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2213,6 +2235,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2634,7 +2657,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:H313" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:H314" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <sortState ref="A2:H312">
     <sortCondition ref="E2:E312"/>
   </sortState>
@@ -8787,10 +8810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="C131" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11780,6 +11803,9 @@
       <c r="E127" s="7" t="s">
         <v>337</v>
       </c>
+      <c r="F127" s="7" t="s">
+        <v>705</v>
+      </c>
       <c r="G127" s="7" t="s">
         <v>338</v>
       </c>
@@ -11800,6 +11826,9 @@
       <c r="E128" s="7" t="s">
         <v>517</v>
       </c>
+      <c r="F128" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="G128" s="7" t="s">
         <v>338</v>
       </c>
@@ -15617,6 +15646,26 @@
       <c r="G313" s="7" t="s">
         <v>301</v>
       </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C314" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="D314" s="10"/>
+      <c r="E314" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="F314" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="G314" s="10"/>
+      <c r="H314" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Relatórios LN/Controle_Relatorios.xlsx
+++ b/Relatórios LN/Controle_Relatorios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="721">
   <si>
     <t>Relatório</t>
   </si>
@@ -2146,6 +2146,39 @@
   </si>
   <si>
     <t>LN_MarketPlace_RelatorioPedidosPAPMarketPlace</t>
+  </si>
+  <si>
+    <t>LN_Contabilidade_RelatorioPedidosIntegrados</t>
+  </si>
+  <si>
+    <t>LN_Fiscal_RelatorioPedidosInternos</t>
+  </si>
+  <si>
+    <t>LN_Contabilidade_RelatorioPedidosMarketPlace</t>
+  </si>
+  <si>
+    <t>LN_TI_RelatorioPedidosStatusPAP</t>
+  </si>
+  <si>
+    <t>LN_Transp_RelatorioPLCorreioDimensoes_eHub</t>
+  </si>
+  <si>
+    <t>LN_Supply_RelatorioPreRecebimentoConsignacao</t>
+  </si>
+  <si>
+    <t>LN_Supply_RelatorioPreRecebimentoConsignacao_Ehub</t>
+  </si>
+  <si>
+    <t>LN_Transp_RelatorioQRY0450PedidoExpedidoDataTransporteDocaCompleto</t>
+  </si>
+  <si>
+    <t>LN_Transp_RelatorioQRY0450PedidoExpedidoDataTransporteDocaCompleto_eHub</t>
+  </si>
+  <si>
+    <t>LN_Supply_RelatorioRascunhoXLM</t>
+  </si>
+  <si>
+    <t>LN_Supply_RelatorioRascunhoXLM-eHub</t>
   </si>
 </sst>
 </file>
@@ -6903,8 +6936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD93"/>
     </sheetView>
   </sheetViews>
@@ -8812,8 +8845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C131" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8823,7 +8856,7 @@
     <col min="3" max="3" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101.42578125" style="7" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="57.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="7"/>
@@ -11852,6 +11885,9 @@
       <c r="E129" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F129" s="7" t="s">
+        <v>710</v>
+      </c>
       <c r="G129" s="7" t="s">
         <v>23</v>
       </c>
@@ -11872,6 +11908,9 @@
       <c r="E130" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="F130" s="7" t="s">
+        <v>711</v>
+      </c>
       <c r="G130" s="7" t="s">
         <v>122</v>
       </c>
@@ -11892,6 +11931,9 @@
       <c r="E131" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="F131" s="7" t="s">
+        <v>712</v>
+      </c>
       <c r="G131" s="7" t="s">
         <v>25</v>
       </c>
@@ -11912,6 +11954,9 @@
       <c r="E132" s="7" t="s">
         <v>357</v>
       </c>
+      <c r="F132" s="7" t="s">
+        <v>713</v>
+      </c>
       <c r="G132" s="7" t="s">
         <v>359</v>
       </c>
@@ -11932,6 +11977,9 @@
       <c r="E133" s="7" t="s">
         <v>532</v>
       </c>
+      <c r="F133" s="7" t="s">
+        <v>714</v>
+      </c>
       <c r="G133" s="7" t="s">
         <v>533</v>
       </c>
@@ -11952,6 +12000,9 @@
       <c r="E134" s="7" t="s">
         <v>339</v>
       </c>
+      <c r="F134" s="7" t="s">
+        <v>715</v>
+      </c>
       <c r="G134" s="7" t="s">
         <v>340</v>
       </c>
@@ -11972,6 +12023,9 @@
       <c r="E135" s="7" t="s">
         <v>518</v>
       </c>
+      <c r="F135" s="7" t="s">
+        <v>716</v>
+      </c>
       <c r="G135" s="7" t="s">
         <v>340</v>
       </c>
@@ -11995,6 +12049,9 @@
       <c r="E136" s="7" t="s">
         <v>398</v>
       </c>
+      <c r="F136" s="7" t="s">
+        <v>717</v>
+      </c>
       <c r="G136" s="7" t="s">
         <v>399</v>
       </c>
@@ -12015,6 +12072,9 @@
       <c r="E137" s="7" t="s">
         <v>534</v>
       </c>
+      <c r="F137" s="7" t="s">
+        <v>718</v>
+      </c>
       <c r="G137" s="7" t="s">
         <v>399</v>
       </c>
@@ -12035,6 +12095,9 @@
       <c r="E138" s="7" t="s">
         <v>341</v>
       </c>
+      <c r="F138" s="7" t="s">
+        <v>719</v>
+      </c>
       <c r="G138" s="7" t="s">
         <v>342</v>
       </c>
@@ -12054,6 +12117,9 @@
       </c>
       <c r="E139" s="7" t="s">
         <v>519</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>720</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>342</v>

--- a/Relatórios LN/Controle_Relatorios.xlsx
+++ b/Relatórios LN/Controle_Relatorios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="723">
   <si>
     <t>Relatório</t>
   </si>
@@ -2179,6 +2179,12 @@
   </si>
   <si>
     <t>LN_Supply_RelatorioRascunhoXLM-eHub</t>
+  </si>
+  <si>
+    <t>LN_Transp_RelatorioTransporteGDFGTETransportadoraTabelasAtivas</t>
+  </si>
+  <si>
+    <t>LN_Transporte Financeiro - GTE13251_Ordem_de_Frete_eHub</t>
   </si>
 </sst>
 </file>
@@ -8845,8 +8851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -10153,7 +10159,9 @@
       <c r="F56" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="G56" s="8"/>
+      <c r="G56" s="7" t="s">
+        <v>696</v>
+      </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
@@ -10524,7 +10532,7 @@
         <v>644</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>389</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -13038,6 +13046,9 @@
       </c>
       <c r="E184" s="7" t="s">
         <v>423</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>721</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>424</v>

--- a/Relatórios LN/Controle_Relatorios.xlsx
+++ b/Relatórios LN/Controle_Relatorios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="734">
   <si>
     <t>Relatório</t>
   </si>
@@ -2200,6 +2200,24 @@
   </si>
   <si>
     <t>LN_Fiscal_RelatorioApuracaoST</t>
+  </si>
+  <si>
+    <t>RelatorioATTM2</t>
+  </si>
+  <si>
+    <t>não encontrei publicação do mesmo</t>
+  </si>
+  <si>
+    <t>RelatorioValesComparativos</t>
+  </si>
+  <si>
+    <t>RelatorioValesSemCorrespondente</t>
+  </si>
+  <si>
+    <t>LN_Contabilidade_RelatorioValesComparativos</t>
+  </si>
+  <si>
+    <t>LN_Contabilidade_RelatorioValesSemCorrespondente</t>
   </si>
 </sst>
 </file>
@@ -2268,7 +2286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2299,6 +2317,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2306,11 +2328,7 @@
   <dxfs count="27">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2320,7 +2338,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2367,7 +2384,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2377,6 +2398,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2738,7 +2760,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:I314" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:I317" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <sortState ref="A2:I314">
     <sortCondition ref="F2:F314"/>
   </sortState>
@@ -2746,12 +2768,12 @@
     <tableColumn id="1" name="Negócio" dataDxfId="8"/>
     <tableColumn id="2" name="Menu Principal" dataDxfId="7"/>
     <tableColumn id="3" name="Sub Menu" dataDxfId="6"/>
-    <tableColumn id="8" name="Link Acesso" dataDxfId="2"/>
-    <tableColumn id="9" name="OK" dataDxfId="0"/>
-    <tableColumn id="4" name="Relatório" dataDxfId="1"/>
-    <tableColumn id="7" name="Nova View LN" dataDxfId="5"/>
-    <tableColumn id="5" name="View LN" dataDxfId="4"/>
-    <tableColumn id="6" name="Observação" dataDxfId="3"/>
+    <tableColumn id="8" name="Link Acesso" dataDxfId="5"/>
+    <tableColumn id="9" name="OK" dataDxfId="4"/>
+    <tableColumn id="4" name="Relatório" dataDxfId="3"/>
+    <tableColumn id="7" name="Nova View LN" dataDxfId="2"/>
+    <tableColumn id="5" name="View LN" dataDxfId="1"/>
+    <tableColumn id="6" name="Observação" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8892,10 +8914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="G322" sqref="G322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -9243,6 +9265,9 @@
       <c r="D13" s="7" t="s">
         <v>573</v>
       </c>
+      <c r="E13" s="11" t="s">
+        <v>721</v>
+      </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
@@ -9254,26 +9279,18 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>7</v>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9290,13 +9307,13 @@
         <v>575</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9307,19 +9324,19 @@
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9336,13 +9353,13 @@
         <v>578</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9353,19 +9370,19 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9376,65 +9393,65 @@
         <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>438</v>
+        <v>3</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>439</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>36</v>
+        <v>438</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>37</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -9451,13 +9468,13 @@
         <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -9468,19 +9485,19 @@
         <v>28</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>351</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -9491,19 +9508,19 @@
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>41</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -9514,19 +9531,19 @@
         <v>28</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -9537,68 +9554,68 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>307</v>
+        <v>59</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>308</v>
+        <v>64</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>309</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>504</v>
+        <v>308</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>504</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -9609,19 +9626,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -9634,16 +9651,18 @@
       <c r="C30" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="D30" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
@@ -9655,18 +9674,16 @@
       <c r="C31" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>366</v>
-      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
@@ -9682,13 +9699,13 @@
         <v>570</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>148</v>
+        <v>602</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -9699,76 +9716,76 @@
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>313</v>
+        <v>610</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>505</v>
+        <v>312</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>95</v>
+        <v>505</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>96</v>
+        <v>313</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>84</v>
@@ -9777,82 +9794,82 @@
         <v>572</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>463</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>314</v>
+        <v>450</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>440</v>
+        <v>314</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>441</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -9869,59 +9886,59 @@
         <v>570</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>522</v>
+        <v>370</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>523</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>43</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -9938,13 +9955,13 @@
         <v>573</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -9955,19 +9972,19 @@
         <v>28</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>148</v>
+        <v>614</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -9978,19 +9995,19 @@
         <v>28</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>358</v>
+        <v>615</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -10001,39 +10018,39 @@
         <v>28</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>524</v>
+        <v>372</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>373</v>
@@ -10053,36 +10070,36 @@
         <v>592</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>526</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>374</v>
+        <v>525</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>375</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -10093,19 +10110,19 @@
         <v>28</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -10122,16 +10139,13 @@
         <v>571</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -10142,68 +10156,71 @@
         <v>28</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>307</v>
+        <v>75</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>318</v>
+        <v>81</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>506</v>
+        <v>317</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>376</v>
+        <v>506</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>377</v>
+        <v>318</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -10214,66 +10231,66 @@
         <v>28</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>16</v>
+        <v>376</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>699</v>
+        <v>625</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>17</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>692</v>
+        <v>15</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>699</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="I56" s="8"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>626</v>
+        <v>307</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>692</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>74</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
@@ -10283,19 +10300,19 @@
         <v>28</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -10306,19 +10323,19 @@
         <v>28</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -10335,13 +10352,13 @@
         <v>580</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -10358,13 +10375,13 @@
         <v>580</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>148</v>
+        <v>629</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -10375,114 +10392,117 @@
         <v>28</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>307</v>
+        <v>135</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>721</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>319</v>
+        <v>140</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>320</v>
+        <v>630</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>507</v>
+        <v>319</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>378</v>
+        <v>507</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>379</v>
+        <v>320</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>527</v>
+        <v>378</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>528</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>380</v>
+        <v>527</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>381</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -10499,13 +10519,13 @@
         <v>570</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -10522,13 +10542,13 @@
         <v>570</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -10539,19 +10559,19 @@
         <v>28</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>84</v>
+        <v>360</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>97</v>
+        <v>384</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>98</v>
+        <v>637</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>98</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -10562,19 +10582,19 @@
         <v>28</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>360</v>
+        <v>84</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>386</v>
+        <v>97</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>638</v>
+        <v>98</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>387</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -10591,59 +10611,59 @@
         <v>570</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>529</v>
+        <v>388</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>718</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>46</v>
+        <v>529</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>47</v>
+        <v>718</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -10654,171 +10674,171 @@
         <v>28</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>322</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>508</v>
+        <v>321</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="I75" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>323</v>
+        <v>508</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>509</v>
+        <v>323</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="I77" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>325</v>
+        <v>509</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>510</v>
+        <v>325</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>511</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>99</v>
+        <v>510</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>100</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>84</v>
@@ -10827,88 +10847,88 @@
         <v>572</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>451</v>
+        <v>99</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I81" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>328</v>
+        <v>100</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>512</v>
+        <v>327</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I83" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>390</v>
+        <v>512</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>391</v>
+        <v>328</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -10925,13 +10945,13 @@
         <v>570</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>148</v>
+        <v>654</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -10942,19 +10962,19 @@
         <v>28</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>656</v>
+        <v>392</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>11</v>
+        <v>655</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -10971,13 +10991,13 @@
         <v>576</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>13</v>
+        <v>656</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -10988,76 +11008,76 @@
         <v>28</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>307</v>
+        <v>10</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>330</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>513</v>
+        <v>329</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="I89" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>101</v>
+        <v>513</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>102</v>
+        <v>330</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>84</v>
@@ -11066,24 +11086,21 @@
         <v>572</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>452</v>
+        <v>101</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I91" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>84</v>
@@ -11092,21 +11109,24 @@
         <v>572</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>103</v>
+        <v>452</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>84</v>
@@ -11115,24 +11135,21 @@
         <v>572</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>453</v>
+        <v>103</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I93" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>84</v>
@@ -11141,21 +11158,24 @@
         <v>572</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>84</v>
@@ -11164,24 +11184,21 @@
         <v>572</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>454</v>
+        <v>105</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I95" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>84</v>
@@ -11190,13 +11207,16 @@
         <v>572</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>107</v>
+        <v>454</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -11213,21 +11233,21 @@
         <v>572</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>84</v>
@@ -11236,24 +11256,21 @@
         <v>572</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>455</v>
+        <v>109</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I98" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>84</v>
@@ -11262,21 +11279,24 @@
         <v>572</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>111</v>
+        <v>455</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>84</v>
@@ -11285,17 +11305,14 @@
         <v>572</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>456</v>
+        <v>111</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I100" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="7" t="s">
@@ -11305,50 +11322,53 @@
         <v>437</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>141</v>
+        <v>456</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>84</v>
@@ -11357,24 +11377,21 @@
         <v>572</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>457</v>
+        <v>113</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I103" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>84</v>
@@ -11383,21 +11400,24 @@
         <v>572</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>115</v>
+        <v>457</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>84</v>
@@ -11406,24 +11426,21 @@
         <v>572</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>458</v>
+        <v>115</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I105" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>84</v>
@@ -11432,21 +11449,24 @@
         <v>572</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>117</v>
+        <v>458</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>84</v>
@@ -11455,85 +11475,85 @@
         <v>572</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>459</v>
+        <v>117</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I107" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>360</v>
+        <v>84</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>530</v>
+        <v>393</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>531</v>
+        <v>679</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>394</v>
+        <v>530</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>395</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -11550,13 +11570,13 @@
         <v>570</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -11567,174 +11587,174 @@
         <v>28</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>514</v>
+        <v>331</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="I113" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>333</v>
+        <v>514</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>515</v>
+        <v>333</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="I115" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>688</v>
+        <v>335</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>687</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="I117" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>689</v>
+        <v>516</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>688</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>120</v>
+        <v>336</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>84</v>
@@ -11743,39 +11763,39 @@
         <v>572</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>460</v>
+        <v>119</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I119" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>48</v>
+        <v>460</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>49</v>
+        <v>120</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -11792,13 +11812,13 @@
         <v>573</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -11809,19 +11829,19 @@
         <v>28</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>352</v>
+        <v>50</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -11832,19 +11852,19 @@
         <v>28</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>52</v>
+        <v>352</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>53</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -11855,19 +11875,19 @@
         <v>28</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>354</v>
+        <v>52</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>148</v>
+        <v>696</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -11878,19 +11898,19 @@
         <v>28</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>19</v>
+        <v>697</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -11907,13 +11927,13 @@
         <v>577</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -11924,68 +11944,68 @@
         <v>28</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>337</v>
+        <v>20</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>338</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>517</v>
+        <v>337</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="I128" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>22</v>
+        <v>517</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>23</v>
+        <v>338</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -11996,19 +12016,19 @@
         <v>28</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -12019,19 +12039,19 @@
         <v>28</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -12041,19 +12061,21 @@
       <c r="B132" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="D132" s="10"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
+      <c r="C132" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="7" t="s">
@@ -12062,135 +12084,133 @@
       <c r="B133" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>359</v>
-      </c>
+      <c r="C133" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>532</v>
+        <v>357</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>533</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>339</v>
+        <v>532</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>340</v>
+        <v>533</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>518</v>
+        <v>339</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="I136" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>398</v>
+        <v>518</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>399</v>
+        <v>340</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>534</v>
+        <v>398</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>399</v>
@@ -12198,171 +12218,174 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>341</v>
+        <v>534</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>519</v>
+        <v>341</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="I140" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>305</v>
+        <v>519</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>306</v>
+        <v>342</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>304</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>503</v>
+        <v>305</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="I142" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>343</v>
+        <v>503</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>720</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>344</v>
+        <v>306</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>520</v>
+        <v>343</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="I144" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>123</v>
+        <v>520</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>124</v>
+        <v>344</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>84</v>
@@ -12371,14 +12394,11 @@
         <v>572</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>461</v>
+        <v>123</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I146" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="7" t="s">
@@ -12388,16 +12408,19 @@
         <v>437</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>466</v>
+        <v>124</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -12408,93 +12431,93 @@
         <v>437</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>360</v>
+        <v>29</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>535</v>
+        <v>400</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>536</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>402</v>
+        <v>535</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>403</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>537</v>
+        <v>402</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>403</v>
@@ -12502,22 +12525,22 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>404</v>
+        <v>537</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -12528,30 +12551,30 @@
         <v>28</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>143</v>
+        <v>404</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>143</v>
@@ -12574,30 +12597,30 @@
         <v>589</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>126</v>
+        <v>467</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -12608,59 +12631,59 @@
         <v>28</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>468</v>
+        <v>145</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I159" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>147</v>
+        <v>468</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -12677,7 +12700,7 @@
         <v>580</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I161" s="7" t="s">
         <v>148</v>
@@ -12697,50 +12720,50 @@
         <v>580</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>360</v>
+        <v>135</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>538</v>
+        <v>150</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>539</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>84</v>
+        <v>360</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>127</v>
+        <v>538</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>128</v>
+        <v>539</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -12757,10 +12780,10 @@
         <v>572</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -12771,16 +12794,16 @@
         <v>28</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>345</v>
+        <v>129</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>346</v>
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -12791,16 +12814,16 @@
         <v>28</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -12817,10 +12840,10 @@
         <v>573</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -12831,16 +12854,16 @@
         <v>28</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -12851,16 +12874,16 @@
         <v>28</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -12871,56 +12894,56 @@
         <v>28</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>360</v>
+        <v>29</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>406</v>
+        <v>57</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>407</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -12931,16 +12954,16 @@
         <v>28</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -12951,16 +12974,16 @@
         <v>28</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>360</v>
+        <v>84</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>409</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -12977,27 +13000,27 @@
         <v>570</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>540</v>
+        <v>410</v>
       </c>
       <c r="H177" s="7" t="s">
         <v>411</v>
@@ -13005,39 +13028,39 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>412</v>
+        <v>540</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>541</v>
+        <v>412</v>
       </c>
       <c r="H179" s="7" t="s">
         <v>413</v>
@@ -13045,22 +13068,22 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>414</v>
+        <v>541</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -13077,53 +13100,53 @@
         <v>570</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="I181" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>542</v>
+        <v>416</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>543</v>
+        <v>417</v>
+      </c>
+      <c r="I182" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>419</v>
+        <v>542</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>420</v>
+        <v>543</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -13140,10 +13163,10 @@
         <v>570</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -13160,13 +13183,10 @@
         <v>570</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>717</v>
+        <v>421</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -13183,10 +13203,13 @@
         <v>570</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -13203,10 +13226,10 @@
         <v>570</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -13223,67 +13246,67 @@
         <v>570</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>544</v>
+        <v>429</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>545</v>
+        <v>430</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>432</v>
+        <v>545</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>546</v>
+        <v>431</v>
       </c>
       <c r="H191" s="7" t="s">
         <v>432</v>
@@ -13291,39 +13314,39 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>433</v>
+        <v>546</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>547</v>
+        <v>433</v>
       </c>
       <c r="H193" s="7" t="s">
         <v>434</v>
@@ -13331,105 +13354,105 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>26</v>
+        <v>547</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>27</v>
+        <v>434</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>444</v>
+        <v>26</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>445</v>
+        <v>27</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>347</v>
+        <v>444</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>348</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>521</v>
+        <v>347</v>
       </c>
       <c r="H197" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="I197" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>70</v>
+        <v>521</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>71</v>
+        <v>348</v>
+      </c>
+      <c r="I198" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -13440,40 +13463,37 @@
         <v>28</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>469</v>
+        <v>153</v>
       </c>
       <c r="H200" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I200" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="7" t="s">
@@ -13489,10 +13509,10 @@
         <v>589</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>471</v>
+        <v>154</v>
       </c>
       <c r="I201" s="7" t="s">
         <v>464</v>
@@ -13500,22 +13520,25 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>156</v>
+        <v>470</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>157</v>
+        <v>471</v>
+      </c>
+      <c r="I202" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -13532,10 +13555,10 @@
         <v>580</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -13552,53 +13575,53 @@
         <v>580</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>472</v>
+        <v>160</v>
       </c>
       <c r="H205" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I205" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>162</v>
+        <v>472</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="I206" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -13609,16 +13632,16 @@
         <v>28</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -13629,10 +13652,10 @@
         <v>28</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>133</v>
@@ -13655,225 +13678,225 @@
         <v>580</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>473</v>
+        <v>164</v>
       </c>
       <c r="H210" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I210" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>166</v>
+        <v>473</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="I211" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>474</v>
+        <v>166</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="I212" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>168</v>
+        <v>474</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="I213" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>475</v>
+        <v>168</v>
       </c>
       <c r="H214" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I214" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>170</v>
+        <v>475</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="I215" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>476</v>
+        <v>170</v>
       </c>
       <c r="H216" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I216" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>172</v>
+        <v>476</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="I217" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>477</v>
+        <v>172</v>
       </c>
       <c r="H218" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I218" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>174</v>
+        <v>477</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="I219" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -13890,10 +13913,10 @@
         <v>580</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -13910,10 +13933,10 @@
         <v>580</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -13930,10 +13953,10 @@
         <v>580</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -13950,10 +13973,10 @@
         <v>580</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -13970,53 +13993,53 @@
         <v>580</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="H225" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I225" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>185</v>
+        <v>478</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="I226" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -14033,10 +14056,10 @@
         <v>580</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -14053,53 +14076,53 @@
         <v>580</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>479</v>
+        <v>189</v>
       </c>
       <c r="H229" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I229" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>191</v>
+        <v>479</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="I230" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -14116,10 +14139,10 @@
         <v>580</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -14136,53 +14159,53 @@
         <v>580</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>480</v>
+        <v>195</v>
       </c>
       <c r="H233" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="I233" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>197</v>
+        <v>480</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="I234" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -14199,93 +14222,93 @@
         <v>580</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="I236" s="7" t="s">
-        <v>148</v>
+        <v>199</v>
+      </c>
+      <c r="H236" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H237" s="7" t="s">
-        <v>203</v>
+        <v>481</v>
+      </c>
+      <c r="I237" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>482</v>
+        <v>202</v>
       </c>
       <c r="H238" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I238" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>204</v>
+        <v>482</v>
+      </c>
+      <c r="H239" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="I239" s="7" t="s">
-        <v>205</v>
+        <v>464</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -14302,10 +14325,10 @@
         <v>580</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H240" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="I240" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -14322,10 +14345,10 @@
         <v>580</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -14342,96 +14365,96 @@
         <v>580</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>483</v>
+        <v>210</v>
       </c>
       <c r="H243" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="I243" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>212</v>
+        <v>483</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="I244" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>484</v>
+        <v>212</v>
       </c>
       <c r="H245" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="I245" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>214</v>
+        <v>484</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="I246" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -14448,96 +14471,96 @@
         <v>580</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="H248" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I248" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>217</v>
+        <v>485</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="I249" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>486</v>
+        <v>217</v>
       </c>
       <c r="H250" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="I250" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>219</v>
+        <v>486</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="I251" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -14547,8 +14570,11 @@
       <c r="B252" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C252" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="D252" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="F252" s="7" t="s">
         <v>219</v>
@@ -14568,53 +14594,50 @@
         <v>569</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="I253" s="7" t="s">
-        <v>148</v>
+        <v>219</v>
+      </c>
+      <c r="H253" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="H254" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="I254" s="7" t="s">
-        <v>464</v>
+        <v>148</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>221</v>
+        <v>436</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="I255" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -14631,10 +14654,10 @@
         <v>580</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="I256" s="7" t="s">
-        <v>148</v>
+        <v>221</v>
+      </c>
+      <c r="H256" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -14651,7 +14674,7 @@
         <v>580</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I257" s="7" t="s">
         <v>148</v>
@@ -14671,10 +14694,10 @@
         <v>580</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H258" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="I258" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -14691,53 +14714,53 @@
         <v>580</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="H260" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I260" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>230</v>
+        <v>487</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="I261" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -14754,10 +14777,10 @@
         <v>580</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -14774,53 +14797,53 @@
         <v>580</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>488</v>
+        <v>234</v>
       </c>
       <c r="H264" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="I264" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>236</v>
+        <v>488</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="I265" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -14837,10 +14860,10 @@
         <v>580</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -14857,10 +14880,10 @@
         <v>580</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -14877,10 +14900,10 @@
         <v>580</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -14897,53 +14920,53 @@
         <v>580</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F270" s="7" t="s">
-        <v>489</v>
+        <v>244</v>
       </c>
       <c r="H270" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I270" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>246</v>
+        <v>489</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="I271" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -14960,53 +14983,53 @@
         <v>580</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>490</v>
+        <v>248</v>
       </c>
       <c r="H273" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="I273" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="I274" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -15023,70 +15046,70 @@
         <v>580</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I275" s="7" t="s">
-        <v>148</v>
+        <v>250</v>
+      </c>
+      <c r="H275" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F276" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H276" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="I276" s="7" t="s">
-        <v>464</v>
+        <v>148</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="H277" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="I277" s="7" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>491</v>
+        <v>253</v>
       </c>
       <c r="I278" s="7" t="s">
         <v>148</v>
@@ -15094,19 +15117,19 @@
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
       <c r="I279" s="7" t="s">
         <v>148</v>
@@ -15126,13 +15149,10 @@
         <v>580</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H280" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I280" s="7" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -15149,10 +15169,13 @@
         <v>580</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="I281" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -15169,10 +15192,10 @@
         <v>580</v>
       </c>
       <c r="F282" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -15189,10 +15212,10 @@
         <v>580</v>
       </c>
       <c r="F283" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H283" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -15209,10 +15232,10 @@
         <v>580</v>
       </c>
       <c r="F284" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H284" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -15229,179 +15252,179 @@
         <v>580</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H285" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F286" s="7" t="s">
-        <v>492</v>
+        <v>265</v>
       </c>
       <c r="H286" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="I286" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F287" s="7" t="s">
-        <v>267</v>
+        <v>492</v>
       </c>
       <c r="H287" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="I287" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F288" s="7" t="s">
-        <v>493</v>
+        <v>267</v>
       </c>
       <c r="H288" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I288" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>269</v>
+        <v>493</v>
       </c>
       <c r="H289" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="I289" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>494</v>
+        <v>269</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>495</v>
+        <v>270</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F291" s="7" t="s">
-        <v>271</v>
+        <v>494</v>
       </c>
       <c r="H291" s="7" t="s">
-        <v>272</v>
+        <v>495</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>496</v>
+        <v>271</v>
       </c>
       <c r="H292" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="I292" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F293" s="7" t="s">
-        <v>273</v>
+        <v>496</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="I293" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -15418,50 +15441,50 @@
         <v>580</v>
       </c>
       <c r="F294" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F295" s="7" t="s">
-        <v>497</v>
+        <v>275</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>498</v>
+        <v>276</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F296" s="7" t="s">
-        <v>277</v>
+        <v>497</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>278</v>
+        <v>498</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -15478,10 +15501,10 @@
         <v>580</v>
       </c>
       <c r="F297" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -15498,10 +15521,10 @@
         <v>580</v>
       </c>
       <c r="F298" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="I298" s="7" t="s">
-        <v>148</v>
+        <v>279</v>
+      </c>
+      <c r="H298" s="7" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -15518,7 +15541,7 @@
         <v>580</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I299" s="7" t="s">
         <v>148</v>
@@ -15538,53 +15561,53 @@
         <v>580</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H300" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
+      </c>
+      <c r="I300" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F301" s="7" t="s">
-        <v>499</v>
+        <v>283</v>
       </c>
       <c r="H301" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="I301" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F302" s="7" t="s">
-        <v>285</v>
+        <v>499</v>
+      </c>
+      <c r="H302" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="I302" s="7" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -15601,7 +15624,7 @@
         <v>580</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I303" s="7" t="s">
         <v>148</v>
@@ -15621,10 +15644,10 @@
         <v>580</v>
       </c>
       <c r="F304" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H304" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="I304" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -15641,10 +15664,10 @@
         <v>580</v>
       </c>
       <c r="F305" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="I305" s="7" t="s">
-        <v>148</v>
+        <v>287</v>
+      </c>
+      <c r="H305" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -15661,10 +15684,10 @@
         <v>580</v>
       </c>
       <c r="F306" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H306" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="I306" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -15681,142 +15704,142 @@
         <v>580</v>
       </c>
       <c r="F307" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="I307" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F308" s="7" t="s">
-        <v>500</v>
+        <v>292</v>
       </c>
       <c r="H308" s="7" t="s">
         <v>293</v>
       </c>
       <c r="I308" s="7" t="s">
-        <v>464</v>
+        <v>295</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F309" s="7" t="s">
-        <v>296</v>
+        <v>500</v>
       </c>
       <c r="H309" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="I309" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F310" s="7" t="s">
-        <v>501</v>
+        <v>296</v>
       </c>
       <c r="H310" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I310" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>298</v>
+        <v>501</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
+      </c>
+      <c r="I311" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F312" s="7" t="s">
-        <v>502</v>
+        <v>298</v>
       </c>
       <c r="H312" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="I312" s="7" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F313" s="7" t="s">
-        <v>300</v>
+        <v>502</v>
       </c>
       <c r="H313" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="I313" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -15833,15 +15856,77 @@
         <v>580</v>
       </c>
       <c r="F314" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H314" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F315" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H314" s="7" t="s">
+      <c r="H315" s="7" t="s">
         <v>301</v>
       </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D316" s="10"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G316" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="H316" s="10"/>
+      <c r="I316" s="10"/>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D317" s="10"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="G317" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H317" s="10"/>
+      <c r="I317" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D148" r:id="rId1"/>
+    <hyperlink ref="D149" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
